--- a/dokumenty/RSP_čas.xlsx
+++ b/dokumenty/RSP_čas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voky\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voky\Git\TBAG2.0_RSP_projekt\.git\TBAG2.0_RSP_projekt\dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="13_ncr:1_{3E5A19FB-F5E1-4C8B-AAC4-30E3DE7FDA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF6BC555-2B5B-4128-BC88-8CADAA3D653E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70599E7-FB42-4B74-AA63-6B73940E59CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="13" xr2:uid="{BC61F073-B12C-482B-97C0-FC4A34FC5EED}"/>
+    <workbookView xWindow="1965" yWindow="2265" windowWidth="21600" windowHeight="11385" firstSheet="13" activeTab="14" xr2:uid="{BC61F073-B12C-482B-97C0-FC4A34FC5EED}"/>
   </bookViews>
   <sheets>
     <sheet name="19.-25.9." sheetId="2" r:id="rId1"/>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +208,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -516,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,13 +530,13 @@
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -555,7 +555,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -599,7 +599,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -637,7 +637,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -709,13 +709,13 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -759,7 +759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -952,13 +952,13 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -1002,7 +1002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -1195,13 +1195,13 @@
       <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -1303,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -1332,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -1361,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -1390,7 +1390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -1438,13 +1438,13 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -1488,7 +1488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -1519,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -1550,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -1581,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -1612,7 +1612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -1643,7 +1643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -1689,17 +1689,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B23D74-8F32-4211-A5C5-2609027DE954}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -1743,7 +1743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -1932,11 +1932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D74C32-C51D-4754-98D1-AC0193BDD991}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="4" width="14.5703125" customWidth="1"/>
@@ -1945,7 +1945,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -1989,7 +1989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -2027,7 +2027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -2065,7 +2065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -2103,7 +2103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -2141,7 +2141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -2179,7 +2179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -2217,7 +2217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -2251,8 +2251,8 @@
         <v>103</v>
       </c>
       <c r="J9" s="4">
-        <f>SUM(C9:F9)</f>
-        <v>628</v>
+        <f>SUM(C9:I9)</f>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
@@ -2275,13 +2275,13 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -2325,7 +2325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -2350,7 +2350,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -2373,7 +2373,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -2396,7 +2396,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -2419,7 +2419,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -2442,7 +2442,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -2478,13 +2478,13 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2503,7 +2503,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -2528,7 +2528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -2709,13 +2709,13 @@
       <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -2759,7 +2759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -2786,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -2813,7 +2813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -2840,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -2867,7 +2867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -2894,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -2930,13 +2930,13 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -2980,7 +2980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -3088,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -3151,13 +3151,13 @@
       <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -3201,7 +3201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -3228,7 +3228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -3255,7 +3255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -3282,7 +3282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -3309,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -3336,7 +3336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3380,13 +3380,13 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -3430,7 +3430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -3461,7 +3461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -3492,7 +3492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -3523,7 +3523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -3552,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -3631,13 +3631,13 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -3681,7 +3681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -3874,13 +3874,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3899,7 +3899,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -3924,7 +3924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'19.-25.9.'!A3</f>
         <v>Tomáš Vokoun</v>
@@ -3955,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'19.-25.9.'!A4</f>
         <v>Filip Keller</v>
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'19.-25.9.'!A5</f>
         <v>Filip Kubát</v>
@@ -4013,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'19.-25.9.'!A6</f>
         <v>Tadeáš Kožich</v>
@@ -4042,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'19.-25.9.'!A7</f>
         <v>Libor Slabý</v>
@@ -4071,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'19.-25.9.'!A8</f>
         <v>Aleksandr Shabelnikov</v>
@@ -4112,21 +4112,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100ACB71971B47CD0439EBDA2CFA6075C38" ma:contentTypeVersion="2" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="be70910a1115bd952827b69f266b3190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44a14aa1-0894-4409-a040-86e619425f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c08dc4d6a52cc18bfb05fd3cb1142cf" ns2:_="">
     <xsd:import namespace="44a14aa1-0894-4409-a040-86e619425f06"/>
@@ -4258,14 +4243,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC2F104F-88F0-466D-8C4C-B0DF807FE81A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD8A29E-F419-45EA-ABCB-D35B234EC8B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="44a14aa1-0894-4409-a040-86e619425f06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1FB3118-7407-4107-9829-A2791F023B1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1FB3118-7407-4107-9829-A2791F023B1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD8A29E-F419-45EA-ABCB-D35B234EC8B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC2F104F-88F0-466D-8C4C-B0DF807FE81A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>